--- a/_doc/BB_reference_v1_2.xlsx
+++ b/_doc/BB_reference_v1_2.xlsx
@@ -5,13 +5,12 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="990" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="reference" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Area" vbProcedure="false">reference!$A$1:$D$86</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Area" vbProcedure="false">reference!$A$1:$D$86</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Titles" vbProcedure="false">reference!$1:5</definedName>
   </definedNames>
@@ -33,7 +32,7 @@
     <t xml:space="preserve">HELP FILES</t>
   </si>
   <si>
-    <t xml:space="preserve">v10.05.2017</t>
+    <t xml:space="preserve">v2018</t>
   </si>
   <si>
     <t xml:space="preserve">símbolo</t>
@@ -96,25 +95,8 @@
     <t xml:space="preserve">GT &lt;expr1&gt; &lt;expr2&gt;</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial Narrow"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Se evalúa a TRUE si expr1 es mayor que expr2, comparados en forma numérica.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">De otro modo, se evalúa a FALSE.</t>
-    </r>
+    <t xml:space="preserve">Se evalúa a TRUE si expr1 es mayor que expr2, comparados en forma numérica.
+De otro modo, se evalúa a FALSE.</t>
   </si>
   <si>
     <t xml:space="preserve">GTE &lt;expr1&gt; &lt;expr2&gt;</t>
@@ -133,9 +115,8 @@
     <r>
       <rPr>
         <sz val="10"/>
-        <rFont val="Arial"/>
+        <rFont val="Arial Narrow"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">De otro modo, se evalúa a FALSE.</t>
     </r>
@@ -157,9 +138,8 @@
     <r>
       <rPr>
         <sz val="10"/>
-        <rFont val="Arial"/>
+        <rFont val="Arial Narrow"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">De otro modo, se evalúa a FALSE.</t>
     </r>
@@ -181,9 +161,8 @@
     <r>
       <rPr>
         <sz val="10"/>
-        <rFont val="Arial"/>
+        <rFont val="Arial Narrow"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">De otro modo, se evalúa a FALSE.</t>
     </r>
@@ -690,7 +669,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="9">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -714,23 +693,34 @@
     </font>
     <font>
       <sz val="10"/>
-      <name val="Arial Narrow"/>
+      <name val="Liberation Sans Narrow"/>
       <family val="2"/>
       <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
       <sz val="18"/>
-      <name val="Arial Narrow"/>
+      <name val="Liberation Sans Narrow"/>
       <family val="2"/>
       <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
       <sz val="10"/>
+      <name val="Liberation Sans Narrow"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <name val="Arial Narrow"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial Narrow"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -872,7 +862,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="27">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -914,6 +904,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1056,19 +1050,19 @@
   </sheetPr>
   <dimension ref="A1:F138"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="12.1479591836735"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="2" width="50.484693877551"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="1.21428571428571"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="2" width="83.4234693877551"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="1.21428571428571"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="22.5459183673469"/>
-    <col collapsed="false" hidden="false" max="1025" min="7" style="1" width="7.83163265306122"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="12.15"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="50.48"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="1.21"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="2" width="83.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="1.21"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="22.55"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="7" style="1" width="7.83"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1157,7 +1151,7 @@
       <c r="E7" s="9"/>
       <c r="F7" s="9"/>
     </row>
-    <row r="8" customFormat="false" ht="23.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="20" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="9" t="s">
         <v>11</v>
       </c>
@@ -1173,7 +1167,7 @@
       <c r="E8" s="9"/>
       <c r="F8" s="9"/>
     </row>
-    <row r="9" customFormat="false" ht="23.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="20" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="9" t="s">
         <v>16</v>
       </c>
@@ -1189,7 +1183,7 @@
       <c r="E9" s="9"/>
       <c r="F9" s="9"/>
     </row>
-    <row r="10" customFormat="false" ht="23.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="20" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="9" t="s">
         <v>16</v>
       </c>
@@ -1205,7 +1199,7 @@
       <c r="E10" s="9"/>
       <c r="F10" s="9"/>
     </row>
-    <row r="11" customFormat="false" ht="23.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="20" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="9" t="s">
         <v>16</v>
       </c>
@@ -1215,13 +1209,13 @@
       <c r="C11" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="D11" s="10" t="s">
+      <c r="D11" s="11" t="s">
         <v>22</v>
       </c>
       <c r="E11" s="9"/>
       <c r="F11" s="9"/>
     </row>
-    <row r="12" customFormat="false" ht="23.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="20" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="9" t="s">
         <v>16</v>
       </c>
@@ -1231,13 +1225,13 @@
       <c r="C12" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="D12" s="10" t="s">
+      <c r="D12" s="11" t="s">
         <v>24</v>
       </c>
       <c r="E12" s="9"/>
       <c r="F12" s="9"/>
     </row>
-    <row r="13" customFormat="false" ht="23.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="20" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="9" t="s">
         <v>16</v>
       </c>
@@ -1247,13 +1241,13 @@
       <c r="C13" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="D13" s="10" t="s">
+      <c r="D13" s="11" t="s">
         <v>26</v>
       </c>
       <c r="E13" s="9"/>
       <c r="F13" s="9"/>
     </row>
-    <row r="14" customFormat="false" ht="23.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="20" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="9" t="s">
         <v>16</v>
       </c>
@@ -1263,13 +1257,13 @@
       <c r="C14" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="D14" s="10" t="s">
+      <c r="D14" s="11" t="s">
         <v>28</v>
       </c>
       <c r="E14" s="9"/>
       <c r="F14" s="9"/>
     </row>
-    <row r="15" customFormat="false" ht="34.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="29.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="9" t="s">
         <v>16</v>
       </c>
@@ -1285,7 +1279,7 @@
       <c r="E15" s="9"/>
       <c r="F15" s="9"/>
     </row>
-    <row r="16" customFormat="false" ht="34.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="29.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="9" t="s">
         <v>16</v>
       </c>
@@ -1301,7 +1295,7 @@
       <c r="E16" s="9"/>
       <c r="F16" s="9"/>
     </row>
-    <row r="17" customFormat="false" ht="23.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="20" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="9" t="s">
         <v>16</v>
       </c>
@@ -1349,7 +1343,7 @@
       <c r="E19" s="9"/>
       <c r="F19" s="9"/>
     </row>
-    <row r="20" customFormat="false" ht="23.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" customFormat="false" ht="20" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="9" t="s">
         <v>37</v>
       </c>
@@ -1461,7 +1455,7 @@
       <c r="E26" s="9"/>
       <c r="F26" s="9"/>
     </row>
-    <row r="27" customFormat="false" ht="79.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" customFormat="false" ht="66.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="9" t="s">
         <v>37</v>
       </c>
@@ -1477,7 +1471,7 @@
       <c r="E27" s="9"/>
       <c r="F27" s="9"/>
     </row>
-    <row r="28" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" customFormat="false" ht="48.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="9" t="s">
         <v>56</v>
       </c>
@@ -1525,7 +1519,7 @@
       <c r="E30" s="9"/>
       <c r="F30" s="9"/>
     </row>
-    <row r="31" customFormat="false" ht="46.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" customFormat="false" ht="38.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="9" t="s">
         <v>11</v>
       </c>
@@ -1541,7 +1535,7 @@
       <c r="E31" s="9"/>
       <c r="F31" s="9"/>
     </row>
-    <row r="32" customFormat="false" ht="68.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" customFormat="false" ht="57.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="9" t="s">
         <v>11</v>
       </c>
@@ -1557,7 +1551,7 @@
       <c r="E32" s="9"/>
       <c r="F32" s="9"/>
     </row>
-    <row r="33" customFormat="false" ht="34.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" customFormat="false" ht="29.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="9" t="s">
         <v>11</v>
       </c>
@@ -1573,7 +1567,7 @@
       <c r="E33" s="9"/>
       <c r="F33" s="9"/>
     </row>
-    <row r="34" customFormat="false" ht="23.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" customFormat="false" ht="20" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="9" t="s">
         <v>11</v>
       </c>
@@ -1589,7 +1583,7 @@
       <c r="E34" s="9"/>
       <c r="F34" s="9"/>
     </row>
-    <row r="35" customFormat="false" ht="79.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" customFormat="false" ht="66.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="9" t="s">
         <v>11</v>
       </c>
@@ -1605,7 +1599,7 @@
       <c r="E35" s="9"/>
       <c r="F35" s="9"/>
     </row>
-    <row r="36" customFormat="false" ht="34.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="36" customFormat="false" ht="29.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="9" t="s">
         <v>11</v>
       </c>
@@ -1621,7 +1615,7 @@
       <c r="E36" s="9"/>
       <c r="F36" s="9"/>
     </row>
-    <row r="37" customFormat="false" ht="46.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="37" customFormat="false" ht="38.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="9" t="s">
         <v>11</v>
       </c>
@@ -1637,7 +1631,7 @@
       <c r="E37" s="9"/>
       <c r="F37" s="9"/>
     </row>
-    <row r="38" customFormat="false" ht="34.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="38" customFormat="false" ht="29.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="9" t="s">
         <v>11</v>
       </c>
@@ -1669,7 +1663,7 @@
       <c r="E39" s="9"/>
       <c r="F39" s="9"/>
     </row>
-    <row r="40" customFormat="false" ht="102.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="40" customFormat="false" ht="85.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="9" t="s">
         <v>11</v>
       </c>
@@ -1733,7 +1727,7 @@
       <c r="E43" s="9"/>
       <c r="F43" s="9"/>
     </row>
-    <row r="44" customFormat="false" ht="34.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="44" customFormat="false" ht="29.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="9" t="s">
         <v>89</v>
       </c>
@@ -1749,7 +1743,7 @@
       <c r="E44" s="9"/>
       <c r="F44" s="9"/>
     </row>
-    <row r="45" customFormat="false" ht="34.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="45" customFormat="false" ht="29.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="9" t="s">
         <v>89</v>
       </c>
@@ -1765,7 +1759,7 @@
       <c r="E45" s="9"/>
       <c r="F45" s="9"/>
     </row>
-    <row r="46" customFormat="false" ht="124.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="46" customFormat="false" ht="104.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="9" t="s">
         <v>11</v>
       </c>
@@ -1781,7 +1775,7 @@
       <c r="E46" s="9"/>
       <c r="F46" s="9"/>
     </row>
-    <row r="47" customFormat="false" ht="23.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="47" customFormat="false" ht="20" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="9" t="s">
         <v>11</v>
       </c>
@@ -1797,7 +1791,7 @@
       <c r="E47" s="9"/>
       <c r="F47" s="9"/>
     </row>
-    <row r="48" customFormat="false" ht="102.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="48" customFormat="false" ht="85.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="9" t="s">
         <v>11</v>
       </c>
@@ -1829,7 +1823,7 @@
       <c r="E49" s="9"/>
       <c r="F49" s="9"/>
     </row>
-    <row r="50" customFormat="false" ht="46.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="50" customFormat="false" ht="38.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="9" t="s">
         <v>11</v>
       </c>
@@ -1861,7 +1855,7 @@
       <c r="E51" s="9"/>
       <c r="F51" s="9"/>
     </row>
-    <row r="52" customFormat="false" ht="23.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="52" customFormat="false" ht="20" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="9" t="s">
         <v>11</v>
       </c>
@@ -1893,7 +1887,7 @@
       <c r="E53" s="9"/>
       <c r="F53" s="9"/>
     </row>
-    <row r="54" customFormat="false" ht="34.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="54" customFormat="false" ht="29.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="9" t="s">
         <v>11</v>
       </c>
@@ -1909,7 +1903,7 @@
       <c r="E54" s="9"/>
       <c r="F54" s="9"/>
     </row>
-    <row r="55" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="55" customFormat="false" ht="48.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="9" t="s">
         <v>11</v>
       </c>
@@ -1941,7 +1935,7 @@
       <c r="E56" s="9"/>
       <c r="F56" s="9"/>
     </row>
-    <row r="57" customFormat="false" ht="23.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="57" customFormat="false" ht="20" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="9" t="s">
         <v>11</v>
       </c>
@@ -2021,7 +2015,7 @@
       <c r="E61" s="9"/>
       <c r="F61" s="9"/>
     </row>
-    <row r="62" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="62" customFormat="false" ht="48.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="9" t="s">
         <v>11</v>
       </c>
@@ -2069,7 +2063,7 @@
       <c r="E64" s="9"/>
       <c r="F64" s="9"/>
     </row>
-    <row r="65" customFormat="false" ht="34.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="65" customFormat="false" ht="29.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="9" t="s">
         <v>11</v>
       </c>
@@ -2101,7 +2095,7 @@
       <c r="E66" s="9"/>
       <c r="F66" s="9"/>
     </row>
-    <row r="67" customFormat="false" ht="46.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="67" customFormat="false" ht="38.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="9" t="s">
         <v>11</v>
       </c>
@@ -2117,7 +2111,7 @@
       <c r="E67" s="9"/>
       <c r="F67" s="9"/>
     </row>
-    <row r="68" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="68" customFormat="false" ht="48.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="9" t="s">
         <v>11</v>
       </c>
@@ -2133,7 +2127,7 @@
       <c r="E68" s="9"/>
       <c r="F68" s="9"/>
     </row>
-    <row r="69" customFormat="false" ht="23.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="69" customFormat="false" ht="20" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="9" t="s">
         <v>11</v>
       </c>
@@ -2149,7 +2143,7 @@
       <c r="E69" s="9"/>
       <c r="F69" s="9"/>
     </row>
-    <row r="70" customFormat="false" ht="23.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="70" customFormat="false" ht="20" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="9" t="s">
         <v>11</v>
       </c>
@@ -2165,7 +2159,7 @@
       <c r="E70" s="9"/>
       <c r="F70" s="9"/>
     </row>
-    <row r="71" customFormat="false" ht="23.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="71" customFormat="false" ht="20" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="9" t="s">
         <v>144</v>
       </c>
@@ -2181,7 +2175,7 @@
       <c r="E71" s="9"/>
       <c r="F71" s="9"/>
     </row>
-    <row r="72" customFormat="false" ht="23.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="72" customFormat="false" ht="20" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="9" t="s">
         <v>11</v>
       </c>
@@ -2197,7 +2191,7 @@
       <c r="E72" s="9"/>
       <c r="F72" s="9"/>
     </row>
-    <row r="73" customFormat="false" ht="23.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="73" customFormat="false" ht="20" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="9" t="s">
         <v>148</v>
       </c>
@@ -2213,7 +2207,7 @@
       <c r="E73" s="9"/>
       <c r="F73" s="9"/>
     </row>
-    <row r="74" customFormat="false" ht="79.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="74" customFormat="false" ht="66.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="9" t="s">
         <v>11</v>
       </c>
@@ -2245,7 +2239,7 @@
       <c r="E75" s="9"/>
       <c r="F75" s="9"/>
     </row>
-    <row r="76" customFormat="false" ht="34.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="76" customFormat="false" ht="29.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="9" t="s">
         <v>11</v>
       </c>
@@ -2312,465 +2306,465 @@
       <c r="F81" s="4"/>
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A82" s="11"/>
-      <c r="B82" s="12"/>
-      <c r="C82" s="13"/>
-      <c r="D82" s="14"/>
-      <c r="E82" s="13"/>
-      <c r="F82" s="15"/>
+      <c r="A82" s="12"/>
+      <c r="B82" s="13"/>
+      <c r="C82" s="14"/>
+      <c r="D82" s="15"/>
+      <c r="E82" s="14"/>
+      <c r="F82" s="16"/>
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A83" s="16"/>
-      <c r="B83" s="17"/>
-      <c r="C83" s="18"/>
-      <c r="D83" s="19"/>
-      <c r="E83" s="18"/>
-      <c r="F83" s="20"/>
+      <c r="A83" s="17"/>
+      <c r="B83" s="18"/>
+      <c r="C83" s="19"/>
+      <c r="D83" s="20"/>
+      <c r="E83" s="19"/>
+      <c r="F83" s="21"/>
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A84" s="16"/>
-      <c r="B84" s="17"/>
-      <c r="C84" s="18"/>
-      <c r="D84" s="19"/>
-      <c r="E84" s="18"/>
-      <c r="F84" s="20"/>
+      <c r="A84" s="17"/>
+      <c r="B84" s="18"/>
+      <c r="C84" s="19"/>
+      <c r="D84" s="20"/>
+      <c r="E84" s="19"/>
+      <c r="F84" s="21"/>
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A85" s="16"/>
-      <c r="B85" s="17"/>
-      <c r="C85" s="18"/>
-      <c r="D85" s="19"/>
-      <c r="E85" s="18"/>
-      <c r="F85" s="20"/>
+      <c r="A85" s="17"/>
+      <c r="B85" s="18"/>
+      <c r="C85" s="19"/>
+      <c r="D85" s="20"/>
+      <c r="E85" s="19"/>
+      <c r="F85" s="21"/>
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A86" s="21"/>
-      <c r="B86" s="22"/>
-      <c r="C86" s="23"/>
-      <c r="D86" s="24"/>
-      <c r="E86" s="23"/>
-      <c r="F86" s="25"/>
+      <c r="A86" s="22"/>
+      <c r="B86" s="23"/>
+      <c r="C86" s="24"/>
+      <c r="D86" s="25"/>
+      <c r="E86" s="24"/>
+      <c r="F86" s="26"/>
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A87" s="18"/>
-      <c r="B87" s="17"/>
-      <c r="C87" s="18"/>
-      <c r="D87" s="17"/>
-      <c r="E87" s="18"/>
-      <c r="F87" s="18"/>
+      <c r="A87" s="19"/>
+      <c r="B87" s="18"/>
+      <c r="C87" s="19"/>
+      <c r="D87" s="18"/>
+      <c r="E87" s="19"/>
+      <c r="F87" s="19"/>
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A88" s="18"/>
-      <c r="B88" s="17"/>
-      <c r="C88" s="18"/>
-      <c r="D88" s="17"/>
-      <c r="E88" s="18"/>
-      <c r="F88" s="18"/>
+      <c r="A88" s="19"/>
+      <c r="B88" s="18"/>
+      <c r="C88" s="19"/>
+      <c r="D88" s="18"/>
+      <c r="E88" s="19"/>
+      <c r="F88" s="19"/>
     </row>
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A89" s="18"/>
-      <c r="B89" s="17"/>
-      <c r="C89" s="18"/>
-      <c r="D89" s="17"/>
-      <c r="E89" s="18"/>
-      <c r="F89" s="18"/>
+      <c r="A89" s="19"/>
+      <c r="B89" s="18"/>
+      <c r="C89" s="19"/>
+      <c r="D89" s="18"/>
+      <c r="E89" s="19"/>
+      <c r="F89" s="19"/>
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A90" s="18"/>
-      <c r="B90" s="17"/>
-      <c r="C90" s="18"/>
-      <c r="D90" s="17"/>
-      <c r="E90" s="18"/>
-      <c r="F90" s="18"/>
+      <c r="A90" s="19"/>
+      <c r="B90" s="18"/>
+      <c r="C90" s="19"/>
+      <c r="D90" s="18"/>
+      <c r="E90" s="19"/>
+      <c r="F90" s="19"/>
     </row>
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A91" s="18"/>
-      <c r="B91" s="17"/>
-      <c r="C91" s="18"/>
-      <c r="D91" s="17"/>
-      <c r="E91" s="18"/>
-      <c r="F91" s="18"/>
+      <c r="A91" s="19"/>
+      <c r="B91" s="18"/>
+      <c r="C91" s="19"/>
+      <c r="D91" s="18"/>
+      <c r="E91" s="19"/>
+      <c r="F91" s="19"/>
     </row>
     <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A92" s="18"/>
-      <c r="B92" s="17"/>
-      <c r="C92" s="18"/>
-      <c r="D92" s="17"/>
-      <c r="E92" s="18"/>
-      <c r="F92" s="18"/>
+      <c r="A92" s="19"/>
+      <c r="B92" s="18"/>
+      <c r="C92" s="19"/>
+      <c r="D92" s="18"/>
+      <c r="E92" s="19"/>
+      <c r="F92" s="19"/>
     </row>
     <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A93" s="18"/>
-      <c r="B93" s="17"/>
-      <c r="C93" s="18"/>
-      <c r="D93" s="17"/>
-      <c r="E93" s="18"/>
-      <c r="F93" s="18"/>
+      <c r="A93" s="19"/>
+      <c r="B93" s="18"/>
+      <c r="C93" s="19"/>
+      <c r="D93" s="18"/>
+      <c r="E93" s="19"/>
+      <c r="F93" s="19"/>
     </row>
     <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A94" s="18"/>
-      <c r="B94" s="17"/>
-      <c r="C94" s="18"/>
-      <c r="D94" s="17"/>
-      <c r="E94" s="18"/>
-      <c r="F94" s="18"/>
+      <c r="A94" s="19"/>
+      <c r="B94" s="18"/>
+      <c r="C94" s="19"/>
+      <c r="D94" s="18"/>
+      <c r="E94" s="19"/>
+      <c r="F94" s="19"/>
     </row>
     <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A95" s="18"/>
-      <c r="B95" s="17"/>
-      <c r="C95" s="18"/>
-      <c r="D95" s="17"/>
-      <c r="E95" s="18"/>
-      <c r="F95" s="18"/>
+      <c r="A95" s="19"/>
+      <c r="B95" s="18"/>
+      <c r="C95" s="19"/>
+      <c r="D95" s="18"/>
+      <c r="E95" s="19"/>
+      <c r="F95" s="19"/>
     </row>
     <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A96" s="18"/>
-      <c r="B96" s="17"/>
-      <c r="C96" s="18"/>
-      <c r="D96" s="17"/>
-      <c r="E96" s="18"/>
-      <c r="F96" s="18"/>
+      <c r="A96" s="19"/>
+      <c r="B96" s="18"/>
+      <c r="C96" s="19"/>
+      <c r="D96" s="18"/>
+      <c r="E96" s="19"/>
+      <c r="F96" s="19"/>
     </row>
     <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A97" s="18"/>
-      <c r="B97" s="17"/>
-      <c r="C97" s="18"/>
-      <c r="D97" s="17"/>
-      <c r="E97" s="18"/>
-      <c r="F97" s="18"/>
+      <c r="A97" s="19"/>
+      <c r="B97" s="18"/>
+      <c r="C97" s="19"/>
+      <c r="D97" s="18"/>
+      <c r="E97" s="19"/>
+      <c r="F97" s="19"/>
     </row>
     <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A98" s="18"/>
-      <c r="B98" s="17"/>
-      <c r="C98" s="18"/>
-      <c r="D98" s="17"/>
-      <c r="E98" s="18"/>
-      <c r="F98" s="18"/>
+      <c r="A98" s="19"/>
+      <c r="B98" s="18"/>
+      <c r="C98" s="19"/>
+      <c r="D98" s="18"/>
+      <c r="E98" s="19"/>
+      <c r="F98" s="19"/>
     </row>
     <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A99" s="18"/>
-      <c r="B99" s="17"/>
-      <c r="C99" s="18"/>
-      <c r="D99" s="17"/>
-      <c r="E99" s="18"/>
-      <c r="F99" s="18"/>
+      <c r="A99" s="19"/>
+      <c r="B99" s="18"/>
+      <c r="C99" s="19"/>
+      <c r="D99" s="18"/>
+      <c r="E99" s="19"/>
+      <c r="F99" s="19"/>
     </row>
     <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A100" s="18"/>
-      <c r="B100" s="17"/>
-      <c r="C100" s="18"/>
-      <c r="D100" s="17"/>
-      <c r="E100" s="18"/>
-      <c r="F100" s="18"/>
+      <c r="A100" s="19"/>
+      <c r="B100" s="18"/>
+      <c r="C100" s="19"/>
+      <c r="D100" s="18"/>
+      <c r="E100" s="19"/>
+      <c r="F100" s="19"/>
     </row>
     <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A101" s="18"/>
-      <c r="B101" s="17"/>
-      <c r="C101" s="18"/>
-      <c r="D101" s="17"/>
-      <c r="E101" s="18"/>
-      <c r="F101" s="18"/>
+      <c r="A101" s="19"/>
+      <c r="B101" s="18"/>
+      <c r="C101" s="19"/>
+      <c r="D101" s="18"/>
+      <c r="E101" s="19"/>
+      <c r="F101" s="19"/>
     </row>
     <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A102" s="18"/>
-      <c r="B102" s="17"/>
-      <c r="C102" s="18"/>
-      <c r="D102" s="17"/>
-      <c r="E102" s="18"/>
-      <c r="F102" s="18"/>
+      <c r="A102" s="19"/>
+      <c r="B102" s="18"/>
+      <c r="C102" s="19"/>
+      <c r="D102" s="18"/>
+      <c r="E102" s="19"/>
+      <c r="F102" s="19"/>
     </row>
     <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A103" s="18"/>
-      <c r="B103" s="17"/>
-      <c r="C103" s="18"/>
-      <c r="D103" s="17"/>
-      <c r="E103" s="18"/>
-      <c r="F103" s="18"/>
+      <c r="A103" s="19"/>
+      <c r="B103" s="18"/>
+      <c r="C103" s="19"/>
+      <c r="D103" s="18"/>
+      <c r="E103" s="19"/>
+      <c r="F103" s="19"/>
     </row>
     <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A104" s="18"/>
-      <c r="B104" s="17"/>
-      <c r="C104" s="18"/>
-      <c r="D104" s="17"/>
-      <c r="E104" s="18"/>
-      <c r="F104" s="18"/>
+      <c r="A104" s="19"/>
+      <c r="B104" s="18"/>
+      <c r="C104" s="19"/>
+      <c r="D104" s="18"/>
+      <c r="E104" s="19"/>
+      <c r="F104" s="19"/>
     </row>
     <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A105" s="18"/>
-      <c r="B105" s="17"/>
-      <c r="C105" s="18"/>
-      <c r="D105" s="17"/>
-      <c r="E105" s="18"/>
-      <c r="F105" s="18"/>
+      <c r="A105" s="19"/>
+      <c r="B105" s="18"/>
+      <c r="C105" s="19"/>
+      <c r="D105" s="18"/>
+      <c r="E105" s="19"/>
+      <c r="F105" s="19"/>
     </row>
     <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A106" s="18"/>
-      <c r="B106" s="17"/>
-      <c r="C106" s="18"/>
-      <c r="D106" s="17"/>
-      <c r="E106" s="18"/>
-      <c r="F106" s="18"/>
+      <c r="A106" s="19"/>
+      <c r="B106" s="18"/>
+      <c r="C106" s="19"/>
+      <c r="D106" s="18"/>
+      <c r="E106" s="19"/>
+      <c r="F106" s="19"/>
     </row>
     <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A107" s="18"/>
-      <c r="B107" s="17"/>
-      <c r="C107" s="18"/>
-      <c r="D107" s="17"/>
-      <c r="E107" s="18"/>
-      <c r="F107" s="18"/>
+      <c r="A107" s="19"/>
+      <c r="B107" s="18"/>
+      <c r="C107" s="19"/>
+      <c r="D107" s="18"/>
+      <c r="E107" s="19"/>
+      <c r="F107" s="19"/>
     </row>
     <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A108" s="18"/>
-      <c r="B108" s="17"/>
-      <c r="C108" s="18"/>
-      <c r="D108" s="17"/>
-      <c r="E108" s="18"/>
-      <c r="F108" s="18"/>
+      <c r="A108" s="19"/>
+      <c r="B108" s="18"/>
+      <c r="C108" s="19"/>
+      <c r="D108" s="18"/>
+      <c r="E108" s="19"/>
+      <c r="F108" s="19"/>
     </row>
     <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A109" s="18"/>
-      <c r="B109" s="17"/>
-      <c r="C109" s="18"/>
-      <c r="D109" s="17"/>
-      <c r="E109" s="18"/>
-      <c r="F109" s="18"/>
+      <c r="A109" s="19"/>
+      <c r="B109" s="18"/>
+      <c r="C109" s="19"/>
+      <c r="D109" s="18"/>
+      <c r="E109" s="19"/>
+      <c r="F109" s="19"/>
     </row>
     <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A110" s="18"/>
-      <c r="B110" s="17"/>
-      <c r="C110" s="18"/>
-      <c r="D110" s="17"/>
-      <c r="E110" s="18"/>
-      <c r="F110" s="18"/>
+      <c r="A110" s="19"/>
+      <c r="B110" s="18"/>
+      <c r="C110" s="19"/>
+      <c r="D110" s="18"/>
+      <c r="E110" s="19"/>
+      <c r="F110" s="19"/>
     </row>
     <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A111" s="18"/>
-      <c r="B111" s="17"/>
-      <c r="C111" s="18"/>
-      <c r="D111" s="17"/>
-      <c r="E111" s="18"/>
-      <c r="F111" s="18"/>
+      <c r="A111" s="19"/>
+      <c r="B111" s="18"/>
+      <c r="C111" s="19"/>
+      <c r="D111" s="18"/>
+      <c r="E111" s="19"/>
+      <c r="F111" s="19"/>
     </row>
     <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A112" s="18"/>
-      <c r="B112" s="17"/>
-      <c r="C112" s="18"/>
-      <c r="D112" s="17"/>
-      <c r="E112" s="18"/>
-      <c r="F112" s="18"/>
+      <c r="A112" s="19"/>
+      <c r="B112" s="18"/>
+      <c r="C112" s="19"/>
+      <c r="D112" s="18"/>
+      <c r="E112" s="19"/>
+      <c r="F112" s="19"/>
     </row>
     <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A113" s="18"/>
-      <c r="B113" s="17"/>
-      <c r="C113" s="18"/>
-      <c r="D113" s="17"/>
-      <c r="E113" s="18"/>
-      <c r="F113" s="18"/>
+      <c r="A113" s="19"/>
+      <c r="B113" s="18"/>
+      <c r="C113" s="19"/>
+      <c r="D113" s="18"/>
+      <c r="E113" s="19"/>
+      <c r="F113" s="19"/>
     </row>
     <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A114" s="18"/>
-      <c r="B114" s="17"/>
-      <c r="C114" s="18"/>
-      <c r="D114" s="17"/>
-      <c r="E114" s="18"/>
-      <c r="F114" s="18"/>
+      <c r="A114" s="19"/>
+      <c r="B114" s="18"/>
+      <c r="C114" s="19"/>
+      <c r="D114" s="18"/>
+      <c r="E114" s="19"/>
+      <c r="F114" s="19"/>
     </row>
     <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A115" s="18"/>
-      <c r="B115" s="17"/>
-      <c r="C115" s="18"/>
-      <c r="D115" s="17"/>
-      <c r="E115" s="18"/>
-      <c r="F115" s="18"/>
+      <c r="A115" s="19"/>
+      <c r="B115" s="18"/>
+      <c r="C115" s="19"/>
+      <c r="D115" s="18"/>
+      <c r="E115" s="19"/>
+      <c r="F115" s="19"/>
     </row>
     <row r="116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A116" s="18"/>
-      <c r="B116" s="17"/>
-      <c r="C116" s="18"/>
-      <c r="D116" s="17"/>
-      <c r="E116" s="18"/>
-      <c r="F116" s="18"/>
+      <c r="A116" s="19"/>
+      <c r="B116" s="18"/>
+      <c r="C116" s="19"/>
+      <c r="D116" s="18"/>
+      <c r="E116" s="19"/>
+      <c r="F116" s="19"/>
     </row>
     <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A117" s="18"/>
-      <c r="B117" s="17"/>
-      <c r="C117" s="18"/>
-      <c r="D117" s="17"/>
-      <c r="E117" s="18"/>
-      <c r="F117" s="18"/>
+      <c r="A117" s="19"/>
+      <c r="B117" s="18"/>
+      <c r="C117" s="19"/>
+      <c r="D117" s="18"/>
+      <c r="E117" s="19"/>
+      <c r="F117" s="19"/>
     </row>
     <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A118" s="18"/>
-      <c r="B118" s="17"/>
-      <c r="C118" s="18"/>
-      <c r="D118" s="17"/>
-      <c r="E118" s="18"/>
-      <c r="F118" s="18"/>
+      <c r="A118" s="19"/>
+      <c r="B118" s="18"/>
+      <c r="C118" s="19"/>
+      <c r="D118" s="18"/>
+      <c r="E118" s="19"/>
+      <c r="F118" s="19"/>
     </row>
     <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A119" s="18"/>
-      <c r="B119" s="17"/>
-      <c r="C119" s="18"/>
-      <c r="D119" s="17"/>
-      <c r="E119" s="18"/>
-      <c r="F119" s="18"/>
+      <c r="A119" s="19"/>
+      <c r="B119" s="18"/>
+      <c r="C119" s="19"/>
+      <c r="D119" s="18"/>
+      <c r="E119" s="19"/>
+      <c r="F119" s="19"/>
     </row>
     <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A120" s="18"/>
-      <c r="B120" s="17"/>
-      <c r="C120" s="18"/>
-      <c r="D120" s="17"/>
-      <c r="E120" s="18"/>
-      <c r="F120" s="18"/>
+      <c r="A120" s="19"/>
+      <c r="B120" s="18"/>
+      <c r="C120" s="19"/>
+      <c r="D120" s="18"/>
+      <c r="E120" s="19"/>
+      <c r="F120" s="19"/>
     </row>
     <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A121" s="18"/>
-      <c r="B121" s="17"/>
-      <c r="C121" s="18"/>
-      <c r="D121" s="17"/>
-      <c r="E121" s="18"/>
-      <c r="F121" s="18"/>
+      <c r="A121" s="19"/>
+      <c r="B121" s="18"/>
+      <c r="C121" s="19"/>
+      <c r="D121" s="18"/>
+      <c r="E121" s="19"/>
+      <c r="F121" s="19"/>
     </row>
     <row r="122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A122" s="18"/>
-      <c r="B122" s="17"/>
-      <c r="C122" s="18"/>
-      <c r="D122" s="17"/>
-      <c r="E122" s="18"/>
-      <c r="F122" s="18"/>
+      <c r="A122" s="19"/>
+      <c r="B122" s="18"/>
+      <c r="C122" s="19"/>
+      <c r="D122" s="18"/>
+      <c r="E122" s="19"/>
+      <c r="F122" s="19"/>
     </row>
     <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A123" s="18"/>
-      <c r="B123" s="17"/>
-      <c r="C123" s="18"/>
-      <c r="D123" s="17"/>
-      <c r="E123" s="18"/>
-      <c r="F123" s="18"/>
+      <c r="A123" s="19"/>
+      <c r="B123" s="18"/>
+      <c r="C123" s="19"/>
+      <c r="D123" s="18"/>
+      <c r="E123" s="19"/>
+      <c r="F123" s="19"/>
     </row>
     <row r="124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A124" s="18"/>
-      <c r="B124" s="17"/>
-      <c r="C124" s="18"/>
-      <c r="D124" s="17"/>
-      <c r="E124" s="18"/>
-      <c r="F124" s="18"/>
+      <c r="A124" s="19"/>
+      <c r="B124" s="18"/>
+      <c r="C124" s="19"/>
+      <c r="D124" s="18"/>
+      <c r="E124" s="19"/>
+      <c r="F124" s="19"/>
     </row>
     <row r="125" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A125" s="18"/>
-      <c r="B125" s="17"/>
-      <c r="C125" s="18"/>
-      <c r="D125" s="17"/>
-      <c r="E125" s="18"/>
-      <c r="F125" s="18"/>
+      <c r="A125" s="19"/>
+      <c r="B125" s="18"/>
+      <c r="C125" s="19"/>
+      <c r="D125" s="18"/>
+      <c r="E125" s="19"/>
+      <c r="F125" s="19"/>
     </row>
     <row r="126" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A126" s="18"/>
-      <c r="B126" s="17"/>
-      <c r="C126" s="18"/>
-      <c r="D126" s="17"/>
-      <c r="E126" s="18"/>
-      <c r="F126" s="18"/>
+      <c r="A126" s="19"/>
+      <c r="B126" s="18"/>
+      <c r="C126" s="19"/>
+      <c r="D126" s="18"/>
+      <c r="E126" s="19"/>
+      <c r="F126" s="19"/>
     </row>
     <row r="127" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A127" s="18"/>
-      <c r="B127" s="17"/>
-      <c r="C127" s="18"/>
-      <c r="D127" s="17"/>
-      <c r="E127" s="18"/>
-      <c r="F127" s="18"/>
+      <c r="A127" s="19"/>
+      <c r="B127" s="18"/>
+      <c r="C127" s="19"/>
+      <c r="D127" s="18"/>
+      <c r="E127" s="19"/>
+      <c r="F127" s="19"/>
     </row>
     <row r="128" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A128" s="18"/>
-      <c r="B128" s="17"/>
-      <c r="C128" s="18"/>
-      <c r="D128" s="17"/>
-      <c r="E128" s="18"/>
-      <c r="F128" s="18"/>
+      <c r="A128" s="19"/>
+      <c r="B128" s="18"/>
+      <c r="C128" s="19"/>
+      <c r="D128" s="18"/>
+      <c r="E128" s="19"/>
+      <c r="F128" s="19"/>
     </row>
     <row r="129" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A129" s="18"/>
-      <c r="B129" s="17"/>
-      <c r="C129" s="18"/>
-      <c r="D129" s="17"/>
-      <c r="E129" s="18"/>
-      <c r="F129" s="18"/>
+      <c r="A129" s="19"/>
+      <c r="B129" s="18"/>
+      <c r="C129" s="19"/>
+      <c r="D129" s="18"/>
+      <c r="E129" s="19"/>
+      <c r="F129" s="19"/>
     </row>
     <row r="130" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A130" s="18"/>
-      <c r="B130" s="17"/>
-      <c r="C130" s="18"/>
-      <c r="D130" s="17"/>
-      <c r="E130" s="18"/>
-      <c r="F130" s="18"/>
+      <c r="A130" s="19"/>
+      <c r="B130" s="18"/>
+      <c r="C130" s="19"/>
+      <c r="D130" s="18"/>
+      <c r="E130" s="19"/>
+      <c r="F130" s="19"/>
     </row>
     <row r="131" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A131" s="18"/>
-      <c r="B131" s="17"/>
-      <c r="C131" s="18"/>
-      <c r="D131" s="17"/>
-      <c r="E131" s="18"/>
-      <c r="F131" s="18"/>
+      <c r="A131" s="19"/>
+      <c r="B131" s="18"/>
+      <c r="C131" s="19"/>
+      <c r="D131" s="18"/>
+      <c r="E131" s="19"/>
+      <c r="F131" s="19"/>
     </row>
     <row r="132" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A132" s="18"/>
-      <c r="B132" s="17"/>
-      <c r="C132" s="18"/>
-      <c r="D132" s="17"/>
-      <c r="E132" s="18"/>
-      <c r="F132" s="18"/>
+      <c r="A132" s="19"/>
+      <c r="B132" s="18"/>
+      <c r="C132" s="19"/>
+      <c r="D132" s="18"/>
+      <c r="E132" s="19"/>
+      <c r="F132" s="19"/>
     </row>
     <row r="133" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A133" s="18"/>
-      <c r="B133" s="17"/>
-      <c r="C133" s="18"/>
-      <c r="D133" s="17"/>
-      <c r="E133" s="18"/>
-      <c r="F133" s="18"/>
+      <c r="A133" s="19"/>
+      <c r="B133" s="18"/>
+      <c r="C133" s="19"/>
+      <c r="D133" s="18"/>
+      <c r="E133" s="19"/>
+      <c r="F133" s="19"/>
     </row>
     <row r="134" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A134" s="18"/>
-      <c r="B134" s="17"/>
-      <c r="C134" s="18"/>
-      <c r="D134" s="17"/>
-      <c r="E134" s="18"/>
-      <c r="F134" s="18"/>
+      <c r="A134" s="19"/>
+      <c r="B134" s="18"/>
+      <c r="C134" s="19"/>
+      <c r="D134" s="18"/>
+      <c r="E134" s="19"/>
+      <c r="F134" s="19"/>
     </row>
     <row r="135" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A135" s="18"/>
-      <c r="B135" s="17"/>
-      <c r="C135" s="18"/>
-      <c r="D135" s="17"/>
-      <c r="E135" s="18"/>
-      <c r="F135" s="18"/>
+      <c r="A135" s="19"/>
+      <c r="B135" s="18"/>
+      <c r="C135" s="19"/>
+      <c r="D135" s="18"/>
+      <c r="E135" s="19"/>
+      <c r="F135" s="19"/>
     </row>
     <row r="136" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A136" s="18"/>
-      <c r="B136" s="17"/>
-      <c r="C136" s="18"/>
-      <c r="D136" s="17"/>
-      <c r="E136" s="18"/>
-      <c r="F136" s="18"/>
+      <c r="A136" s="19"/>
+      <c r="B136" s="18"/>
+      <c r="C136" s="19"/>
+      <c r="D136" s="18"/>
+      <c r="E136" s="19"/>
+      <c r="F136" s="19"/>
     </row>
     <row r="137" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A137" s="18"/>
-      <c r="B137" s="17"/>
-      <c r="C137" s="18"/>
-      <c r="D137" s="17"/>
-      <c r="E137" s="18"/>
-      <c r="F137" s="18"/>
+      <c r="A137" s="19"/>
+      <c r="B137" s="18"/>
+      <c r="C137" s="19"/>
+      <c r="D137" s="18"/>
+      <c r="E137" s="19"/>
+      <c r="F137" s="19"/>
     </row>
     <row r="138" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A138" s="23"/>
-      <c r="B138" s="22"/>
-      <c r="C138" s="23"/>
-      <c r="D138" s="22"/>
-      <c r="E138" s="23"/>
-      <c r="F138" s="23"/>
+      <c r="A138" s="24"/>
+      <c r="B138" s="23"/>
+      <c r="C138" s="24"/>
+      <c r="D138" s="23"/>
+      <c r="E138" s="24"/>
+      <c r="F138" s="24"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="10" pageOrder="downThenOver" orientation="landscape" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="10" pageOrder="downThenOver" orientation="landscape" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
